--- a/src/test/resources/TestData/SourceData.xlsx
+++ b/src/test/resources/TestData/SourceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Gupta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70EAA8C-B2F4-4059-A319-9D28B75D6F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C721F08-3F6E-424E-BEC9-41C84EF727FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7ECDB462-621B-49C2-AC31-733776635F18}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>First name</t>
   </si>
@@ -502,7 +502,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -608,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -667,7 +667,9 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
